--- a/Documents/FunctionalTestRun_ProjectName.xlsx
+++ b/Documents/FunctionalTestRun_ProjectName.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
   <si>
     <t xml:space="preserve">Test run date:  </t>
   </si>
@@ -215,6 +215,15 @@
   </si>
   <si>
     <t>Yes, if the user deleted the word in the vocab page</t>
+  </si>
+  <si>
+    <t>TC-22</t>
+  </si>
+  <si>
+    <t>When deleting the DB, the program generates a new DB file.</t>
+  </si>
+  <si>
+    <t>If the user deleted the DB, then it will creating a new DB</t>
   </si>
 </sst>
 </file>
@@ -824,10 +833,18 @@
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="A24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="5"/>
